--- a/NZ_words.xlsx
+++ b/NZ_words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajnafannikertesz/Desktop/Accents /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saidmf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD243F48-AC36-4640-B146-71F94D2C1E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4896D5-A21A-4A72-BDCE-FC7064459A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="500" windowWidth="16720" windowHeight="16100" xr2:uid="{5A07E4D9-303A-2A46-9902-F74429138E6A}"/>
+    <workbookView xWindow="30075" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{5A07E4D9-303A-2A46-9902-F74429138E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="274">
   <si>
     <t>target</t>
   </si>
@@ -455,10 +455,409 @@
     <t>l</t>
   </si>
   <si>
-    <t>NZ</t>
-  </si>
-  <si>
     <t>NZ_words/shellfish_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/bloodhound_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/antelope_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/woodpecker_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/swordfish_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/parakeet_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/walrus_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/tortoise_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/caterpillar_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/piranha_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/chimpanzee_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/gazelle_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/seagull_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/catfish_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/critter_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/giraffe_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/python_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/ferret_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/rattlesnake_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/octopus_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/livestock_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/beetle_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/possum_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/rhino_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/panda_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/hamster_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/crocodile_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/kangaroo_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/corral_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/parasite_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/newborn_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/zebra_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/predator_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/scorpion_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/dolphin_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/cricket_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/penguin_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/cuckoo_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/fiancee_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/bacteria_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/goldfish_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/oyster_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/insect_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/parrot_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/reindeer_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/kitten_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/camel_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/donkey_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/leopard_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/squirrel_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/butterfly_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/lion_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/salmon_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/tuna_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/spider_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/elephant_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/goose_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/cattle_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/tiger_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/mouse_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/rabbit_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/snake_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/turkey_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/flower_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/grandmother_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/monkey_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/musket_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/sunscreen_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/sauerkraut_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/matchbook_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/eyeliner_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/aftershave_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/corkscrew_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/thermos_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/airstrip_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/fragrance_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/scrapbook_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/buttermilk_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/racquetball_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/skillet_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/podium_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/duffel_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/eggnog_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/folder_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/armour_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/syringe_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/manicure_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/washer_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/espresso_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/email_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/barbershop_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/uranium_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/softball_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/bleach_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/vocabulary_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/gadget_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/grapefruit_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/cupboard_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/plaster_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/hydrogen_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/aquarium_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/boiler_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/pager_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/jewellery_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/mainland_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/cinnamon_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/fiber_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/bagel_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/casket_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/telegraph_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/laptop_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/yearbook_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/toothbrush_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/cocoa_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/playground_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/freezer_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/freeway_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/makeup_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/poster_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/arrow_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/dynamite_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/photograph_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/missile_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/basket_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/museum_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/palace_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/diamond_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/butter_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/vehicle_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/wallet_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/garage_NZ.wav</t>
+  </si>
+  <si>
+    <t>NZ_words/pizza_NZ.wav</t>
+  </si>
+  <si>
+    <t>TR_words/</t>
+  </si>
+  <si>
+    <t>US_words/</t>
+  </si>
+  <si>
+    <t>files</t>
   </si>
 </sst>
 </file>
@@ -810,15 +1209,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0AD16-EF2B-2944-9D6D-95B64702B7F1}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -843,10 +1242,10 @@
         <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -856,12 +1255,11 @@
       <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" t="str">
-        <f>_xlfn.CONCAT("NZ_words/",A3,"_NZ.wav")</f>
-        <v>NZ_words/bloodhound_NZ.wav</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -871,12 +1269,11 @@
       <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="0">_xlfn.CONCAT("NZ_words/",A4,"_NZ.wav")</f>
-        <v>NZ_words/antelope_NZ.wav</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -886,12 +1283,11 @@
       <c r="C5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/woodpecker_NZ.wav</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -901,12 +1297,11 @@
       <c r="C6" t="s">
         <v>137</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/swordfish_NZ.wav</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -916,12 +1311,11 @@
       <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/parakeet_NZ.wav</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -931,12 +1325,11 @@
       <c r="C8" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/walrus_NZ.wav</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -946,12 +1339,11 @@
       <c r="C9" t="s">
         <v>137</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/tortoise_NZ.wav</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -961,12 +1353,11 @@
       <c r="C10" t="s">
         <v>137</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/caterpillar_NZ.wav</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -976,12 +1367,11 @@
       <c r="C11" t="s">
         <v>137</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/piranha_NZ.wav</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -991,12 +1381,11 @@
       <c r="C12" t="s">
         <v>137</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/chimpanzee_NZ.wav</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1006,12 +1395,11 @@
       <c r="C13" t="s">
         <v>137</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/gazelle_NZ.wav</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1021,12 +1409,11 @@
       <c r="C14" t="s">
         <v>137</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/seagull_NZ.wav</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1036,12 +1423,11 @@
       <c r="C15" t="s">
         <v>137</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/catfish_NZ.wav</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1051,12 +1437,11 @@
       <c r="C16" t="s">
         <v>137</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/critter_NZ.wav</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1066,12 +1451,11 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/giraffe_NZ.wav</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1081,12 +1465,11 @@
       <c r="C18" t="s">
         <v>137</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/python_NZ.wav</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1096,12 +1479,11 @@
       <c r="C19" t="s">
         <v>137</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/ferret_NZ.wav</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1111,12 +1493,11 @@
       <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/rattlesnake_NZ.wav</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1126,12 +1507,11 @@
       <c r="C21" t="s">
         <v>137</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/octopus_NZ.wav</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1141,12 +1521,11 @@
       <c r="C22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/livestock_NZ.wav</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1156,12 +1535,11 @@
       <c r="C23" t="s">
         <v>137</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/beetle_NZ.wav</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1171,12 +1549,11 @@
       <c r="C24" t="s">
         <v>137</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/possum_NZ.wav</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1186,12 +1563,11 @@
       <c r="C25" t="s">
         <v>137</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/rhino_NZ.wav</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1201,12 +1577,11 @@
       <c r="C26" t="s">
         <v>137</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/panda_NZ.wav</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1216,12 +1591,11 @@
       <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/hamster_NZ.wav</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1231,12 +1605,11 @@
       <c r="C28" t="s">
         <v>137</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/crocodile_NZ.wav</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1246,12 +1619,11 @@
       <c r="C29" t="s">
         <v>137</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/kangaroo_NZ.wav</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1261,12 +1633,11 @@
       <c r="C30" t="s">
         <v>137</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/corral_NZ.wav</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1276,12 +1647,11 @@
       <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/parasite_NZ.wav</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1291,12 +1661,11 @@
       <c r="C32" t="s">
         <v>137</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/newborn_NZ.wav</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1306,12 +1675,11 @@
       <c r="C33" t="s">
         <v>137</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/zebra_NZ.wav</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1321,12 +1689,11 @@
       <c r="C34" t="s">
         <v>137</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/predator_NZ.wav</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1336,12 +1703,11 @@
       <c r="C35" t="s">
         <v>137</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/scorpion_NZ.wav</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1351,12 +1717,11 @@
       <c r="C36" t="s">
         <v>137</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/dolphin_NZ.wav</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1366,12 +1731,11 @@
       <c r="C37" t="s">
         <v>137</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/cricket_NZ.wav</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1381,12 +1745,11 @@
       <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/penguin_NZ.wav</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1396,12 +1759,11 @@
       <c r="C39" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/cuckoo_NZ.wav</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1411,12 +1773,11 @@
       <c r="C40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/fiancee_NZ.wav</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1426,12 +1787,11 @@
       <c r="C41" t="s">
         <v>137</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/bacteria_NZ.wav</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1441,12 +1801,11 @@
       <c r="C42" t="s">
         <v>137</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/goldfish_NZ.wav</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1456,12 +1815,11 @@
       <c r="C43" t="s">
         <v>137</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/oyster_NZ.wav</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1471,12 +1829,11 @@
       <c r="C44" t="s">
         <v>137</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/insect_NZ.wav</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1486,12 +1843,11 @@
       <c r="C45" t="s">
         <v>137</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/parrot_NZ.wav</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1501,12 +1857,11 @@
       <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/reindeer_NZ.wav</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1516,12 +1871,11 @@
       <c r="C47" t="s">
         <v>137</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/kitten_NZ.wav</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1531,12 +1885,11 @@
       <c r="C48" t="s">
         <v>137</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/camel_NZ.wav</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1546,12 +1899,11 @@
       <c r="C49" t="s">
         <v>137</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/donkey_NZ.wav</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1561,12 +1913,11 @@
       <c r="C50" t="s">
         <v>137</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/leopard_NZ.wav</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1576,12 +1927,11 @@
       <c r="C51" t="s">
         <v>137</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/squirrel_NZ.wav</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1591,12 +1941,11 @@
       <c r="C52" t="s">
         <v>137</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/butterfly_NZ.wav</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1606,12 +1955,11 @@
       <c r="C53" t="s">
         <v>137</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/lion_NZ.wav</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1621,12 +1969,11 @@
       <c r="C54" t="s">
         <v>137</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/salmon_NZ.wav</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1636,12 +1983,11 @@
       <c r="C55" t="s">
         <v>137</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/tuna_NZ.wav</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1651,12 +1997,11 @@
       <c r="C56" t="s">
         <v>137</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/spider_NZ.wav</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1666,12 +2011,11 @@
       <c r="C57" t="s">
         <v>137</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/elephant_NZ.wav</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1681,12 +2025,11 @@
       <c r="C58" t="s">
         <v>137</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/goose_NZ.wav</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1696,12 +2039,11 @@
       <c r="C59" t="s">
         <v>137</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/cattle_NZ.wav</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1711,12 +2053,11 @@
       <c r="C60" t="s">
         <v>137</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/tiger_NZ.wav</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1726,12 +2067,11 @@
       <c r="C61" t="s">
         <v>137</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/mouse_NZ.wav</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1741,12 +2081,11 @@
       <c r="C62" t="s">
         <v>137</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/rabbit_NZ.wav</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1756,12 +2095,11 @@
       <c r="C63" t="s">
         <v>137</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/snake_NZ.wav</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1771,12 +2109,11 @@
       <c r="C64" t="s">
         <v>137</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/turkey_NZ.wav</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1786,12 +2123,11 @@
       <c r="C65" t="s">
         <v>137</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/flower_NZ.wav</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1801,12 +2137,11 @@
       <c r="C66" t="s">
         <v>137</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/grandmother_NZ.wav</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1816,12 +2151,11 @@
       <c r="C67" t="s">
         <v>137</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>NZ_words/monkey_NZ.wav</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1831,12 +2165,11 @@
       <c r="C68" t="s">
         <v>138</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" ref="D68:D131" si="1">_xlfn.CONCAT("NZ_words/",A68,"_NZ.wav")</f>
-        <v>NZ_words/musket_NZ.wav</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1846,12 +2179,11 @@
       <c r="C69" t="s">
         <v>138</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/sunscreen_NZ.wav</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1861,12 +2193,11 @@
       <c r="C70" t="s">
         <v>138</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/sauerkraut_NZ.wav</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1876,12 +2207,11 @@
       <c r="C71" t="s">
         <v>138</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/matchbook_NZ.wav</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1891,12 +2221,11 @@
       <c r="C72" t="s">
         <v>138</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/eyeliner_NZ.wav</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1906,12 +2235,11 @@
       <c r="C73" t="s">
         <v>138</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/aftershave_NZ.wav</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1921,12 +2249,11 @@
       <c r="C74" t="s">
         <v>138</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/corkscrew_NZ.wav</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1936,12 +2263,11 @@
       <c r="C75" t="s">
         <v>138</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/thermos_NZ.wav</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1951,12 +2277,11 @@
       <c r="C76" t="s">
         <v>138</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/airstrip_NZ.wav</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1966,12 +2291,11 @@
       <c r="C77" t="s">
         <v>138</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/fragrance_NZ.wav</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1981,12 +2305,11 @@
       <c r="C78" t="s">
         <v>138</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/scrapbook_NZ.wav</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1996,12 +2319,11 @@
       <c r="C79" t="s">
         <v>138</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/buttermilk_NZ.wav</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2011,12 +2333,11 @@
       <c r="C80" t="s">
         <v>138</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/racquetball_NZ.wav</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2026,12 +2347,11 @@
       <c r="C81" t="s">
         <v>138</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/skillet_NZ.wav</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2041,12 +2361,11 @@
       <c r="C82" t="s">
         <v>138</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/podium_NZ.wav</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2056,12 +2375,11 @@
       <c r="C83" t="s">
         <v>138</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/duffel_NZ.wav</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2071,12 +2389,11 @@
       <c r="C84" t="s">
         <v>138</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/eggnog_NZ.wav</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2086,12 +2403,11 @@
       <c r="C85" t="s">
         <v>138</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/folder_NZ.wav</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2101,12 +2417,11 @@
       <c r="C86" t="s">
         <v>138</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/armour_NZ.wav</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2116,12 +2431,11 @@
       <c r="C87" t="s">
         <v>138</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/syringe_NZ.wav</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2131,12 +2445,11 @@
       <c r="C88" t="s">
         <v>138</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/manicure_NZ.wav</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2146,12 +2459,11 @@
       <c r="C89" t="s">
         <v>138</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/washer_NZ.wav</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2161,12 +2473,11 @@
       <c r="C90" t="s">
         <v>138</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/espresso_NZ.wav</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2176,12 +2487,11 @@
       <c r="C91" t="s">
         <v>138</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/email_NZ.wav</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2191,12 +2501,11 @@
       <c r="C92" t="s">
         <v>138</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/barbershop_NZ.wav</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2206,12 +2515,11 @@
       <c r="C93" t="s">
         <v>138</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/uranium_NZ.wav</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2221,12 +2529,11 @@
       <c r="C94" t="s">
         <v>138</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/softball_NZ.wav</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2236,12 +2543,11 @@
       <c r="C95" t="s">
         <v>138</v>
       </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/bleach_NZ.wav</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2251,12 +2557,11 @@
       <c r="C96" t="s">
         <v>138</v>
       </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/vocabulary_NZ.wav</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2266,12 +2571,11 @@
       <c r="C97" t="s">
         <v>138</v>
       </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/gadget_NZ.wav</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2281,12 +2585,11 @@
       <c r="C98" t="s">
         <v>138</v>
       </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/grapefruit_NZ.wav</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2296,12 +2599,11 @@
       <c r="C99" t="s">
         <v>138</v>
       </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/cupboard_NZ.wav</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2311,12 +2613,11 @@
       <c r="C100" t="s">
         <v>138</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/plaster_NZ.wav</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2326,12 +2627,11 @@
       <c r="C101" t="s">
         <v>138</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/hydrogen_NZ.wav</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2341,12 +2641,11 @@
       <c r="C102" t="s">
         <v>138</v>
       </c>
-      <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/aquarium_NZ.wav</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2356,12 +2655,11 @@
       <c r="C103" t="s">
         <v>138</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/boiler_NZ.wav</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2371,12 +2669,11 @@
       <c r="C104" t="s">
         <v>138</v>
       </c>
-      <c r="D104" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/pager_NZ.wav</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2386,12 +2683,11 @@
       <c r="C105" t="s">
         <v>138</v>
       </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/jewellery_NZ.wav</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2401,12 +2697,11 @@
       <c r="C106" t="s">
         <v>138</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/mainland_NZ.wav</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2416,12 +2711,11 @@
       <c r="C107" t="s">
         <v>138</v>
       </c>
-      <c r="D107" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/cinnamon_NZ.wav</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2431,12 +2725,11 @@
       <c r="C108" t="s">
         <v>138</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/fiber_NZ.wav</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2446,12 +2739,11 @@
       <c r="C109" t="s">
         <v>138</v>
       </c>
-      <c r="D109" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/bagel_NZ.wav</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2461,12 +2753,11 @@
       <c r="C110" t="s">
         <v>138</v>
       </c>
-      <c r="D110" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/casket_NZ.wav</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2476,12 +2767,11 @@
       <c r="C111" t="s">
         <v>138</v>
       </c>
-      <c r="D111" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/telegraph_NZ.wav</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2491,12 +2781,11 @@
       <c r="C112" t="s">
         <v>138</v>
       </c>
-      <c r="D112" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/laptop_NZ.wav</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2506,12 +2795,11 @@
       <c r="C113" t="s">
         <v>138</v>
       </c>
-      <c r="D113" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/yearbook_NZ.wav</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2521,12 +2809,11 @@
       <c r="C114" t="s">
         <v>138</v>
       </c>
-      <c r="D114" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/toothbrush_NZ.wav</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2536,12 +2823,11 @@
       <c r="C115" t="s">
         <v>138</v>
       </c>
-      <c r="D115" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/cocoa_NZ.wav</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2551,12 +2837,11 @@
       <c r="C116" t="s">
         <v>138</v>
       </c>
-      <c r="D116" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/playground_NZ.wav</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2566,12 +2851,11 @@
       <c r="C117" t="s">
         <v>138</v>
       </c>
-      <c r="D117" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/freezer_NZ.wav</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2581,12 +2865,11 @@
       <c r="C118" t="s">
         <v>138</v>
       </c>
-      <c r="D118" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/freeway_NZ.wav</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2596,12 +2879,11 @@
       <c r="C119" t="s">
         <v>138</v>
       </c>
-      <c r="D119" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/makeup_NZ.wav</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2611,12 +2893,11 @@
       <c r="C120" t="s">
         <v>138</v>
       </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/poster_NZ.wav</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2626,12 +2907,11 @@
       <c r="C121" t="s">
         <v>138</v>
       </c>
-      <c r="D121" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/arrow_NZ.wav</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2641,12 +2921,11 @@
       <c r="C122" t="s">
         <v>138</v>
       </c>
-      <c r="D122" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/dynamite_NZ.wav</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -2656,12 +2935,11 @@
       <c r="C123" t="s">
         <v>138</v>
       </c>
-      <c r="D123" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/photograph_NZ.wav</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -2671,12 +2949,11 @@
       <c r="C124" t="s">
         <v>138</v>
       </c>
-      <c r="D124" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/missile_NZ.wav</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2686,12 +2963,11 @@
       <c r="C125" t="s">
         <v>138</v>
       </c>
-      <c r="D125" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/basket_NZ.wav</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -2701,12 +2977,11 @@
       <c r="C126" t="s">
         <v>138</v>
       </c>
-      <c r="D126" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/museum_NZ.wav</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -2716,12 +2991,11 @@
       <c r="C127" t="s">
         <v>138</v>
       </c>
-      <c r="D127" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/palace_NZ.wav</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -2731,12 +3005,11 @@
       <c r="C128" t="s">
         <v>138</v>
       </c>
-      <c r="D128" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/diamond_NZ.wav</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -2746,12 +3019,11 @@
       <c r="C129" t="s">
         <v>138</v>
       </c>
-      <c r="D129" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/butter_NZ.wav</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -2761,12 +3033,11 @@
       <c r="C130" t="s">
         <v>138</v>
       </c>
-      <c r="D130" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/vehicle_NZ.wav</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -2776,12 +3047,11 @@
       <c r="C131" t="s">
         <v>138</v>
       </c>
-      <c r="D131" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ_words/wallet_NZ.wav</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -2791,12 +3061,11 @@
       <c r="C132" t="s">
         <v>138</v>
       </c>
-      <c r="D132" t="str">
-        <f t="shared" ref="D132:D133" si="2">_xlfn.CONCAT("NZ_words/",A132,"_NZ.wav")</f>
-        <v>NZ_words/garage_NZ.wav</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -2806,9 +3075,2918 @@
       <c r="C133" t="s">
         <v>138</v>
       </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
-        <v>NZ_words/pizza_NZ.wav</v>
+      <c r="D133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>135</v>
+      </c>
+      <c r="C141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>135</v>
+      </c>
+      <c r="C142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>135</v>
+      </c>
+      <c r="C150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>135</v>
+      </c>
+      <c r="C152" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>135</v>
+      </c>
+      <c r="C156" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" t="s">
+        <v>135</v>
+      </c>
+      <c r="C160" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162" t="s">
+        <v>135</v>
+      </c>
+      <c r="C162" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>33</v>
+      </c>
+      <c r="B164" t="s">
+        <v>135</v>
+      </c>
+      <c r="C164" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" t="s">
+        <v>135</v>
+      </c>
+      <c r="C167" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>38</v>
+      </c>
+      <c r="B169" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170" t="s">
+        <v>135</v>
+      </c>
+      <c r="C170" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171" t="s">
+        <v>135</v>
+      </c>
+      <c r="C171" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>41</v>
+      </c>
+      <c r="B172" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>42</v>
+      </c>
+      <c r="B173" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>43</v>
+      </c>
+      <c r="B174" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>44</v>
+      </c>
+      <c r="B175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C175" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" t="s">
+        <v>135</v>
+      </c>
+      <c r="C176" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" t="s">
+        <v>135</v>
+      </c>
+      <c r="C177" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>47</v>
+      </c>
+      <c r="B178" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>48</v>
+      </c>
+      <c r="B179" t="s">
+        <v>135</v>
+      </c>
+      <c r="C179" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" t="s">
+        <v>135</v>
+      </c>
+      <c r="C180" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>50</v>
+      </c>
+      <c r="B181" t="s">
+        <v>135</v>
+      </c>
+      <c r="C181" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>51</v>
+      </c>
+      <c r="B182" t="s">
+        <v>135</v>
+      </c>
+      <c r="C182" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183" t="s">
+        <v>135</v>
+      </c>
+      <c r="C183" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B184" t="s">
+        <v>135</v>
+      </c>
+      <c r="C184" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" t="s">
+        <v>135</v>
+      </c>
+      <c r="C185" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" t="s">
+        <v>135</v>
+      </c>
+      <c r="C186" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" t="s">
+        <v>135</v>
+      </c>
+      <c r="C187" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>57</v>
+      </c>
+      <c r="B188" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B189" t="s">
+        <v>135</v>
+      </c>
+      <c r="C189" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>60</v>
+      </c>
+      <c r="B191" t="s">
+        <v>135</v>
+      </c>
+      <c r="C191" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>61</v>
+      </c>
+      <c r="B192" t="s">
+        <v>135</v>
+      </c>
+      <c r="C192" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>62</v>
+      </c>
+      <c r="B193" t="s">
+        <v>135</v>
+      </c>
+      <c r="C193" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>63</v>
+      </c>
+      <c r="B194" t="s">
+        <v>135</v>
+      </c>
+      <c r="C194" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>64</v>
+      </c>
+      <c r="B195" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>65</v>
+      </c>
+      <c r="B196" t="s">
+        <v>135</v>
+      </c>
+      <c r="C196" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>67</v>
+      </c>
+      <c r="B198" t="s">
+        <v>135</v>
+      </c>
+      <c r="C198" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>68</v>
+      </c>
+      <c r="B199" t="s">
+        <v>135</v>
+      </c>
+      <c r="C199" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>69</v>
+      </c>
+      <c r="B200" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>70</v>
+      </c>
+      <c r="B201" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>71</v>
+      </c>
+      <c r="B202" t="s">
+        <v>136</v>
+      </c>
+      <c r="C202" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>72</v>
+      </c>
+      <c r="B203" t="s">
+        <v>136</v>
+      </c>
+      <c r="C203" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>73</v>
+      </c>
+      <c r="B204" t="s">
+        <v>136</v>
+      </c>
+      <c r="C204" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>74</v>
+      </c>
+      <c r="B205" t="s">
+        <v>136</v>
+      </c>
+      <c r="C205" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>75</v>
+      </c>
+      <c r="B206" t="s">
+        <v>136</v>
+      </c>
+      <c r="C206" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>76</v>
+      </c>
+      <c r="B207" t="s">
+        <v>136</v>
+      </c>
+      <c r="C207" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>77</v>
+      </c>
+      <c r="B208" t="s">
+        <v>136</v>
+      </c>
+      <c r="C208" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>78</v>
+      </c>
+      <c r="B209" t="s">
+        <v>136</v>
+      </c>
+      <c r="C209" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>79</v>
+      </c>
+      <c r="B210" t="s">
+        <v>136</v>
+      </c>
+      <c r="C210" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>80</v>
+      </c>
+      <c r="B211" t="s">
+        <v>136</v>
+      </c>
+      <c r="C211" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>81</v>
+      </c>
+      <c r="B212" t="s">
+        <v>136</v>
+      </c>
+      <c r="C212" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>82</v>
+      </c>
+      <c r="B213" t="s">
+        <v>136</v>
+      </c>
+      <c r="C213" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>83</v>
+      </c>
+      <c r="B214" t="s">
+        <v>136</v>
+      </c>
+      <c r="C214" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>84</v>
+      </c>
+      <c r="B215" t="s">
+        <v>136</v>
+      </c>
+      <c r="C215" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>85</v>
+      </c>
+      <c r="B216" t="s">
+        <v>136</v>
+      </c>
+      <c r="C216" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>86</v>
+      </c>
+      <c r="B217" t="s">
+        <v>136</v>
+      </c>
+      <c r="C217" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>87</v>
+      </c>
+      <c r="B218" t="s">
+        <v>136</v>
+      </c>
+      <c r="C218" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>88</v>
+      </c>
+      <c r="B219" t="s">
+        <v>136</v>
+      </c>
+      <c r="C219" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>89</v>
+      </c>
+      <c r="B220" t="s">
+        <v>136</v>
+      </c>
+      <c r="C220" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>90</v>
+      </c>
+      <c r="B221" t="s">
+        <v>136</v>
+      </c>
+      <c r="C221" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>91</v>
+      </c>
+      <c r="B222" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>92</v>
+      </c>
+      <c r="B223" t="s">
+        <v>136</v>
+      </c>
+      <c r="C223" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>93</v>
+      </c>
+      <c r="B224" t="s">
+        <v>136</v>
+      </c>
+      <c r="C224" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>94</v>
+      </c>
+      <c r="B225" t="s">
+        <v>136</v>
+      </c>
+      <c r="C225" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>95</v>
+      </c>
+      <c r="B226" t="s">
+        <v>136</v>
+      </c>
+      <c r="C226" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>96</v>
+      </c>
+      <c r="B227" t="s">
+        <v>136</v>
+      </c>
+      <c r="C227" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>97</v>
+      </c>
+      <c r="B228" t="s">
+        <v>136</v>
+      </c>
+      <c r="C228" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>98</v>
+      </c>
+      <c r="B229" t="s">
+        <v>136</v>
+      </c>
+      <c r="C229" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>99</v>
+      </c>
+      <c r="B230" t="s">
+        <v>136</v>
+      </c>
+      <c r="C230" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>100</v>
+      </c>
+      <c r="B231" t="s">
+        <v>136</v>
+      </c>
+      <c r="C231" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>101</v>
+      </c>
+      <c r="B232" t="s">
+        <v>136</v>
+      </c>
+      <c r="C232" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>102</v>
+      </c>
+      <c r="B233" t="s">
+        <v>136</v>
+      </c>
+      <c r="C233" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>103</v>
+      </c>
+      <c r="B234" t="s">
+        <v>136</v>
+      </c>
+      <c r="C234" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>104</v>
+      </c>
+      <c r="B235" t="s">
+        <v>136</v>
+      </c>
+      <c r="C235" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>105</v>
+      </c>
+      <c r="B236" t="s">
+        <v>136</v>
+      </c>
+      <c r="C236" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>106</v>
+      </c>
+      <c r="B237" t="s">
+        <v>136</v>
+      </c>
+      <c r="C237" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>107</v>
+      </c>
+      <c r="B238" t="s">
+        <v>136</v>
+      </c>
+      <c r="C238" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>108</v>
+      </c>
+      <c r="B239" t="s">
+        <v>136</v>
+      </c>
+      <c r="C239" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>109</v>
+      </c>
+      <c r="B240" t="s">
+        <v>136</v>
+      </c>
+      <c r="C240" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>110</v>
+      </c>
+      <c r="B241" t="s">
+        <v>136</v>
+      </c>
+      <c r="C241" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>111</v>
+      </c>
+      <c r="B242" t="s">
+        <v>136</v>
+      </c>
+      <c r="C242" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>112</v>
+      </c>
+      <c r="B243" t="s">
+        <v>136</v>
+      </c>
+      <c r="C243" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>113</v>
+      </c>
+      <c r="B244" t="s">
+        <v>136</v>
+      </c>
+      <c r="C244" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>114</v>
+      </c>
+      <c r="B245" t="s">
+        <v>136</v>
+      </c>
+      <c r="C245" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>115</v>
+      </c>
+      <c r="B246" t="s">
+        <v>136</v>
+      </c>
+      <c r="C246" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>116</v>
+      </c>
+      <c r="B247" t="s">
+        <v>136</v>
+      </c>
+      <c r="C247" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>117</v>
+      </c>
+      <c r="B248" t="s">
+        <v>136</v>
+      </c>
+      <c r="C248" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>118</v>
+      </c>
+      <c r="B249" t="s">
+        <v>136</v>
+      </c>
+      <c r="C249" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>119</v>
+      </c>
+      <c r="B250" t="s">
+        <v>136</v>
+      </c>
+      <c r="C250" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>120</v>
+      </c>
+      <c r="B251" t="s">
+        <v>136</v>
+      </c>
+      <c r="C251" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>121</v>
+      </c>
+      <c r="B252" t="s">
+        <v>136</v>
+      </c>
+      <c r="C252" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>122</v>
+      </c>
+      <c r="B253" t="s">
+        <v>136</v>
+      </c>
+      <c r="C253" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>123</v>
+      </c>
+      <c r="B254" t="s">
+        <v>136</v>
+      </c>
+      <c r="C254" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>124</v>
+      </c>
+      <c r="B255" t="s">
+        <v>136</v>
+      </c>
+      <c r="C255" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>125</v>
+      </c>
+      <c r="B256" t="s">
+        <v>136</v>
+      </c>
+      <c r="C256" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>126</v>
+      </c>
+      <c r="B257" t="s">
+        <v>136</v>
+      </c>
+      <c r="C257" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>127</v>
+      </c>
+      <c r="B258" t="s">
+        <v>136</v>
+      </c>
+      <c r="C258" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>128</v>
+      </c>
+      <c r="B259" t="s">
+        <v>136</v>
+      </c>
+      <c r="C259" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>129</v>
+      </c>
+      <c r="B260" t="s">
+        <v>136</v>
+      </c>
+      <c r="C260" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>130</v>
+      </c>
+      <c r="B261" t="s">
+        <v>136</v>
+      </c>
+      <c r="C261" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>131</v>
+      </c>
+      <c r="B262" t="s">
+        <v>136</v>
+      </c>
+      <c r="C262" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>132</v>
+      </c>
+      <c r="B263" t="s">
+        <v>136</v>
+      </c>
+      <c r="C263" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>133</v>
+      </c>
+      <c r="B264" t="s">
+        <v>136</v>
+      </c>
+      <c r="C264" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>136</v>
+      </c>
+      <c r="C265" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" t="s">
+        <v>135</v>
+      </c>
+      <c r="C266" t="s">
+        <v>137</v>
+      </c>
+      <c r="D266" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>135</v>
+      </c>
+      <c r="C267" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>135</v>
+      </c>
+      <c r="C268" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>135</v>
+      </c>
+      <c r="C269" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270" t="s">
+        <v>135</v>
+      </c>
+      <c r="C270" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" t="s">
+        <v>135</v>
+      </c>
+      <c r="C271" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" t="s">
+        <v>135</v>
+      </c>
+      <c r="C272" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>135</v>
+      </c>
+      <c r="C273" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>135</v>
+      </c>
+      <c r="C274" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>135</v>
+      </c>
+      <c r="C275" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" t="s">
+        <v>135</v>
+      </c>
+      <c r="C276" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277" t="s">
+        <v>135</v>
+      </c>
+      <c r="C277" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279" t="s">
+        <v>135</v>
+      </c>
+      <c r="C279" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" t="s">
+        <v>135</v>
+      </c>
+      <c r="C280" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281" t="s">
+        <v>135</v>
+      </c>
+      <c r="C281" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>19</v>
+      </c>
+      <c r="B282" t="s">
+        <v>135</v>
+      </c>
+      <c r="C282" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>20</v>
+      </c>
+      <c r="B283" t="s">
+        <v>135</v>
+      </c>
+      <c r="C283" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>21</v>
+      </c>
+      <c r="B284" t="s">
+        <v>135</v>
+      </c>
+      <c r="C284" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" t="s">
+        <v>135</v>
+      </c>
+      <c r="C285" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>23</v>
+      </c>
+      <c r="B286" t="s">
+        <v>135</v>
+      </c>
+      <c r="C286" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" t="s">
+        <v>135</v>
+      </c>
+      <c r="C287" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" t="s">
+        <v>135</v>
+      </c>
+      <c r="C288" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>26</v>
+      </c>
+      <c r="B289" t="s">
+        <v>135</v>
+      </c>
+      <c r="C289" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" t="s">
+        <v>135</v>
+      </c>
+      <c r="C290" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" t="s">
+        <v>135</v>
+      </c>
+      <c r="C291" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" t="s">
+        <v>135</v>
+      </c>
+      <c r="C292" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" t="s">
+        <v>135</v>
+      </c>
+      <c r="C293" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>31</v>
+      </c>
+      <c r="B294" t="s">
+        <v>135</v>
+      </c>
+      <c r="C294" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>32</v>
+      </c>
+      <c r="B295" t="s">
+        <v>135</v>
+      </c>
+      <c r="C295" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>33</v>
+      </c>
+      <c r="B296" t="s">
+        <v>135</v>
+      </c>
+      <c r="C296" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>34</v>
+      </c>
+      <c r="B297" t="s">
+        <v>135</v>
+      </c>
+      <c r="C297" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>35</v>
+      </c>
+      <c r="B298" t="s">
+        <v>135</v>
+      </c>
+      <c r="C298" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>36</v>
+      </c>
+      <c r="B299" t="s">
+        <v>135</v>
+      </c>
+      <c r="C299" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>37</v>
+      </c>
+      <c r="B300" t="s">
+        <v>135</v>
+      </c>
+      <c r="C300" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>38</v>
+      </c>
+      <c r="B301" t="s">
+        <v>135</v>
+      </c>
+      <c r="C301" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>39</v>
+      </c>
+      <c r="B302" t="s">
+        <v>135</v>
+      </c>
+      <c r="C302" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>40</v>
+      </c>
+      <c r="B303" t="s">
+        <v>135</v>
+      </c>
+      <c r="C303" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>41</v>
+      </c>
+      <c r="B304" t="s">
+        <v>135</v>
+      </c>
+      <c r="C304" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>42</v>
+      </c>
+      <c r="B305" t="s">
+        <v>135</v>
+      </c>
+      <c r="C305" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>43</v>
+      </c>
+      <c r="B306" t="s">
+        <v>135</v>
+      </c>
+      <c r="C306" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>44</v>
+      </c>
+      <c r="B307" t="s">
+        <v>135</v>
+      </c>
+      <c r="C307" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>45</v>
+      </c>
+      <c r="B308" t="s">
+        <v>135</v>
+      </c>
+      <c r="C308" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>46</v>
+      </c>
+      <c r="B309" t="s">
+        <v>135</v>
+      </c>
+      <c r="C309" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>47</v>
+      </c>
+      <c r="B310" t="s">
+        <v>135</v>
+      </c>
+      <c r="C310" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>48</v>
+      </c>
+      <c r="B311" t="s">
+        <v>135</v>
+      </c>
+      <c r="C311" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>49</v>
+      </c>
+      <c r="B312" t="s">
+        <v>135</v>
+      </c>
+      <c r="C312" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>50</v>
+      </c>
+      <c r="B313" t="s">
+        <v>135</v>
+      </c>
+      <c r="C313" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>51</v>
+      </c>
+      <c r="B314" t="s">
+        <v>135</v>
+      </c>
+      <c r="C314" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>52</v>
+      </c>
+      <c r="B315" t="s">
+        <v>135</v>
+      </c>
+      <c r="C315" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>53</v>
+      </c>
+      <c r="B316" t="s">
+        <v>135</v>
+      </c>
+      <c r="C316" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>54</v>
+      </c>
+      <c r="B317" t="s">
+        <v>135</v>
+      </c>
+      <c r="C317" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>55</v>
+      </c>
+      <c r="B318" t="s">
+        <v>135</v>
+      </c>
+      <c r="C318" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>56</v>
+      </c>
+      <c r="B319" t="s">
+        <v>135</v>
+      </c>
+      <c r="C319" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>57</v>
+      </c>
+      <c r="B320" t="s">
+        <v>135</v>
+      </c>
+      <c r="C320" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>58</v>
+      </c>
+      <c r="B321" t="s">
+        <v>135</v>
+      </c>
+      <c r="C321" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>59</v>
+      </c>
+      <c r="B322" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>60</v>
+      </c>
+      <c r="B323" t="s">
+        <v>135</v>
+      </c>
+      <c r="C323" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>61</v>
+      </c>
+      <c r="B324" t="s">
+        <v>135</v>
+      </c>
+      <c r="C324" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>62</v>
+      </c>
+      <c r="B325" t="s">
+        <v>135</v>
+      </c>
+      <c r="C325" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>63</v>
+      </c>
+      <c r="B326" t="s">
+        <v>135</v>
+      </c>
+      <c r="C326" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>64</v>
+      </c>
+      <c r="B327" t="s">
+        <v>135</v>
+      </c>
+      <c r="C327" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>65</v>
+      </c>
+      <c r="B328" t="s">
+        <v>135</v>
+      </c>
+      <c r="C328" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>66</v>
+      </c>
+      <c r="B329" t="s">
+        <v>135</v>
+      </c>
+      <c r="C329" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>67</v>
+      </c>
+      <c r="B330" t="s">
+        <v>135</v>
+      </c>
+      <c r="C330" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>68</v>
+      </c>
+      <c r="B331" t="s">
+        <v>135</v>
+      </c>
+      <c r="C331" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>69</v>
+      </c>
+      <c r="B332" t="s">
+        <v>136</v>
+      </c>
+      <c r="C332" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>70</v>
+      </c>
+      <c r="B333" t="s">
+        <v>136</v>
+      </c>
+      <c r="C333" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>71</v>
+      </c>
+      <c r="B334" t="s">
+        <v>136</v>
+      </c>
+      <c r="C334" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>72</v>
+      </c>
+      <c r="B335" t="s">
+        <v>136</v>
+      </c>
+      <c r="C335" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>73</v>
+      </c>
+      <c r="B336" t="s">
+        <v>136</v>
+      </c>
+      <c r="C336" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>74</v>
+      </c>
+      <c r="B337" t="s">
+        <v>136</v>
+      </c>
+      <c r="C337" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>75</v>
+      </c>
+      <c r="B338" t="s">
+        <v>136</v>
+      </c>
+      <c r="C338" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>76</v>
+      </c>
+      <c r="B339" t="s">
+        <v>136</v>
+      </c>
+      <c r="C339" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>77</v>
+      </c>
+      <c r="B340" t="s">
+        <v>136</v>
+      </c>
+      <c r="C340" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>78</v>
+      </c>
+      <c r="B341" t="s">
+        <v>136</v>
+      </c>
+      <c r="C341" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>79</v>
+      </c>
+      <c r="B342" t="s">
+        <v>136</v>
+      </c>
+      <c r="C342" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>80</v>
+      </c>
+      <c r="B343" t="s">
+        <v>136</v>
+      </c>
+      <c r="C343" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>81</v>
+      </c>
+      <c r="B344" t="s">
+        <v>136</v>
+      </c>
+      <c r="C344" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>82</v>
+      </c>
+      <c r="B345" t="s">
+        <v>136</v>
+      </c>
+      <c r="C345" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>83</v>
+      </c>
+      <c r="B346" t="s">
+        <v>136</v>
+      </c>
+      <c r="C346" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>84</v>
+      </c>
+      <c r="B347" t="s">
+        <v>136</v>
+      </c>
+      <c r="C347" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>85</v>
+      </c>
+      <c r="B348" t="s">
+        <v>136</v>
+      </c>
+      <c r="C348" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>86</v>
+      </c>
+      <c r="B349" t="s">
+        <v>136</v>
+      </c>
+      <c r="C349" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>87</v>
+      </c>
+      <c r="B350" t="s">
+        <v>136</v>
+      </c>
+      <c r="C350" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>88</v>
+      </c>
+      <c r="B351" t="s">
+        <v>136</v>
+      </c>
+      <c r="C351" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>89</v>
+      </c>
+      <c r="B352" t="s">
+        <v>136</v>
+      </c>
+      <c r="C352" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>90</v>
+      </c>
+      <c r="B353" t="s">
+        <v>136</v>
+      </c>
+      <c r="C353" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>91</v>
+      </c>
+      <c r="B354" t="s">
+        <v>136</v>
+      </c>
+      <c r="C354" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>92</v>
+      </c>
+      <c r="B355" t="s">
+        <v>136</v>
+      </c>
+      <c r="C355" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>93</v>
+      </c>
+      <c r="B356" t="s">
+        <v>136</v>
+      </c>
+      <c r="C356" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>94</v>
+      </c>
+      <c r="B357" t="s">
+        <v>136</v>
+      </c>
+      <c r="C357" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>95</v>
+      </c>
+      <c r="B358" t="s">
+        <v>136</v>
+      </c>
+      <c r="C358" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>96</v>
+      </c>
+      <c r="B359" t="s">
+        <v>136</v>
+      </c>
+      <c r="C359" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>97</v>
+      </c>
+      <c r="B360" t="s">
+        <v>136</v>
+      </c>
+      <c r="C360" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>98</v>
+      </c>
+      <c r="B361" t="s">
+        <v>136</v>
+      </c>
+      <c r="C361" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>99</v>
+      </c>
+      <c r="B362" t="s">
+        <v>136</v>
+      </c>
+      <c r="C362" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>100</v>
+      </c>
+      <c r="B363" t="s">
+        <v>136</v>
+      </c>
+      <c r="C363" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>101</v>
+      </c>
+      <c r="B364" t="s">
+        <v>136</v>
+      </c>
+      <c r="C364" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>102</v>
+      </c>
+      <c r="B365" t="s">
+        <v>136</v>
+      </c>
+      <c r="C365" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>103</v>
+      </c>
+      <c r="B366" t="s">
+        <v>136</v>
+      </c>
+      <c r="C366" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>104</v>
+      </c>
+      <c r="B367" t="s">
+        <v>136</v>
+      </c>
+      <c r="C367" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>105</v>
+      </c>
+      <c r="B368" t="s">
+        <v>136</v>
+      </c>
+      <c r="C368" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>106</v>
+      </c>
+      <c r="B369" t="s">
+        <v>136</v>
+      </c>
+      <c r="C369" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>107</v>
+      </c>
+      <c r="B370" t="s">
+        <v>136</v>
+      </c>
+      <c r="C370" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>108</v>
+      </c>
+      <c r="B371" t="s">
+        <v>136</v>
+      </c>
+      <c r="C371" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>109</v>
+      </c>
+      <c r="B372" t="s">
+        <v>136</v>
+      </c>
+      <c r="C372" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>110</v>
+      </c>
+      <c r="B373" t="s">
+        <v>136</v>
+      </c>
+      <c r="C373" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>111</v>
+      </c>
+      <c r="B374" t="s">
+        <v>136</v>
+      </c>
+      <c r="C374" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>112</v>
+      </c>
+      <c r="B375" t="s">
+        <v>136</v>
+      </c>
+      <c r="C375" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>113</v>
+      </c>
+      <c r="B376" t="s">
+        <v>136</v>
+      </c>
+      <c r="C376" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>114</v>
+      </c>
+      <c r="B377" t="s">
+        <v>136</v>
+      </c>
+      <c r="C377" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>115</v>
+      </c>
+      <c r="B378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C378" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>116</v>
+      </c>
+      <c r="B379" t="s">
+        <v>136</v>
+      </c>
+      <c r="C379" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>117</v>
+      </c>
+      <c r="B380" t="s">
+        <v>136</v>
+      </c>
+      <c r="C380" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>118</v>
+      </c>
+      <c r="B381" t="s">
+        <v>136</v>
+      </c>
+      <c r="C381" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>119</v>
+      </c>
+      <c r="B382" t="s">
+        <v>136</v>
+      </c>
+      <c r="C382" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>120</v>
+      </c>
+      <c r="B383" t="s">
+        <v>136</v>
+      </c>
+      <c r="C383" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>121</v>
+      </c>
+      <c r="B384" t="s">
+        <v>136</v>
+      </c>
+      <c r="C384" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>122</v>
+      </c>
+      <c r="B385" t="s">
+        <v>136</v>
+      </c>
+      <c r="C385" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>123</v>
+      </c>
+      <c r="B386" t="s">
+        <v>136</v>
+      </c>
+      <c r="C386" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>124</v>
+      </c>
+      <c r="B387" t="s">
+        <v>136</v>
+      </c>
+      <c r="C387" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>125</v>
+      </c>
+      <c r="B388" t="s">
+        <v>136</v>
+      </c>
+      <c r="C388" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>126</v>
+      </c>
+      <c r="B389" t="s">
+        <v>136</v>
+      </c>
+      <c r="C389" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>127</v>
+      </c>
+      <c r="B390" t="s">
+        <v>136</v>
+      </c>
+      <c r="C390" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>128</v>
+      </c>
+      <c r="B391" t="s">
+        <v>136</v>
+      </c>
+      <c r="C391" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>129</v>
+      </c>
+      <c r="B392" t="s">
+        <v>136</v>
+      </c>
+      <c r="C392" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>130</v>
+      </c>
+      <c r="B393" t="s">
+        <v>136</v>
+      </c>
+      <c r="C393" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>131</v>
+      </c>
+      <c r="B394" t="s">
+        <v>136</v>
+      </c>
+      <c r="C394" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>132</v>
+      </c>
+      <c r="B395" t="s">
+        <v>136</v>
+      </c>
+      <c r="C395" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>133</v>
+      </c>
+      <c r="B396" t="s">
+        <v>136</v>
+      </c>
+      <c r="C396" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>134</v>
+      </c>
+      <c r="B397" t="s">
+        <v>136</v>
+      </c>
+      <c r="C397" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
